--- a/biology/Virologie/Hualan_Chen/Hualan_Chen.xlsx
+++ b/biology/Virologie/Hualan_Chen/Hualan_Chen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hualan Chen (陈化兰) , née en 1969 à Baiyin est une biologiste chinoise spécialisée dans la virologie animale. 
-Elle travaille au Harbin Veterinary Research Institute à la Chinese Academy of Agricultural Sciences[1].
-Elle a été cité dans la liste des 10 scientifiques de l'année 2013 de la revue nature qui la décrit comme "une détective de la grippe aviaire travaillant en première ligne qui a contribué à éviter une éruption de la grippe H7N9 chez les humains en Chine" »[2].
-Elle a reçu le prix L'Oréal-Unesco pour les femmes et la science en 2016 pour ses recherches sur la biologie des virus de la grippe aviaire ouvrant la voie au développement d'un vaccin efficace[3],[4].
+Elle travaille au Harbin Veterinary Research Institute à la Chinese Academy of Agricultural Sciences.
+Elle a été cité dans la liste des 10 scientifiques de l'année 2013 de la revue nature qui la décrit comme "une détective de la grippe aviaire travaillant en première ligne qui a contribué à éviter une éruption de la grippe H7N9 chez les humains en Chine" ».
+Elle a reçu le prix L'Oréal-Unesco pour les femmes et la science en 2016 pour ses recherches sur la biologie des virus de la grippe aviaire ouvrant la voie au développement d'un vaccin efficace,.
 </t>
         </is>
       </c>
